--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42989,6 +42989,41 @@
         <v>1982000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1882800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43024,6 +43024,41 @@
         <v>1882800</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>420400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43059,6 +43059,41 @@
         <v>420400</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>582000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43094,6 +43094,41 @@
         <v>582000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>214200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43129,6 +43129,41 @@
         <v>214200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1287900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43164,6 +43164,41 @@
         <v>1287900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>6524900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43199,6 +43199,41 @@
         <v>6524900</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>657500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43234,6 +43234,41 @@
         <v>657500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>3377200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43269,6 +43269,41 @@
         <v>3377200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>1145000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43304,6 +43304,41 @@
         <v>1145000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>17235700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43339,6 +43339,41 @@
         <v>17235700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>10045400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43374,6 +43374,41 @@
         <v>10045400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1600500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43409,6 +43409,76 @@
         <v>1600500</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>3726500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>10719900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43479,6 +43479,76 @@
         <v>10719900</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>5937900</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>7514500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43549,6 +43549,41 @@
         <v>7514500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>15180900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43584,6 +43584,41 @@
         <v>15180900</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>7661000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43619,6 +43619,41 @@
         <v>7661000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1122200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43654,6 +43654,41 @@
         <v>1122200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>14327800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43689,6 +43689,76 @@
         <v>14327800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>8867800</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>4753800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43759,6 +43759,41 @@
         <v>4753800</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1705700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43794,6 +43794,41 @@
         <v>1705700</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>15757500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2650"/>
+  <dimension ref="A1:I2651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93144,6 +93144,41 @@
         <v>15757500</v>
       </c>
     </row>
+    <row r="2651">
+      <c r="A2651" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2651" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2651" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2651" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2651" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2651" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2651" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2651" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2651" t="n">
+        <v>11758200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2651"/>
+  <dimension ref="A1:I2652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93179,6 +93179,41 @@
         <v>11758200</v>
       </c>
     </row>
+    <row r="2652">
+      <c r="A2652" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2652" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2652" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2652" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2652" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2652" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2652" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2652" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2652" t="n">
+        <v>10534000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2652"/>
+  <dimension ref="A1:I2653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93214,6 +93214,41 @@
         <v>10534000</v>
       </c>
     </row>
+    <row r="2653">
+      <c r="A2653" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2653" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2653" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2653" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2653" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2653" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2653" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2653" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2653" t="n">
+        <v>2519300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2653"/>
+  <dimension ref="A1:I2654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93249,6 +93249,41 @@
         <v>2519300</v>
       </c>
     </row>
+    <row r="2654">
+      <c r="A2654" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2654" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2654" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2654" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2654" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2654" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2654" t="n">
+        <v>2774300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2654"/>
+  <dimension ref="A1:I2655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93284,6 +93284,41 @@
         <v>2774300</v>
       </c>
     </row>
+    <row r="2655">
+      <c r="A2655" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2655" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2655" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2655" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2655" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2655" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2655" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2655" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2655" t="n">
+        <v>11903500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2655"/>
+  <dimension ref="A1:I2656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93319,6 +93319,41 @@
         <v>11903500</v>
       </c>
     </row>
+    <row r="2656">
+      <c r="A2656" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2656" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2656" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2656" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2656" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2656" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2656" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2656" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2656" t="n">
+        <v>1608000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2656"/>
+  <dimension ref="A1:I2657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93354,6 +93354,41 @@
         <v>1608000</v>
       </c>
     </row>
+    <row r="2657">
+      <c r="A2657" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2657" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2657" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2657" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2657" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2657" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2657" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2657" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2657" t="n">
+        <v>3525500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2657"/>
+  <dimension ref="A1:I2658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93389,6 +93389,41 @@
         <v>3525500</v>
       </c>
     </row>
+    <row r="2658">
+      <c r="A2658" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2658" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2658" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2658" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2658" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2658" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2658" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2658" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2658" t="n">
+        <v>3650100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2658"/>
+  <dimension ref="A1:I2659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93424,6 +93424,41 @@
         <v>3650100</v>
       </c>
     </row>
+    <row r="2659">
+      <c r="A2659" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2659" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2659" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2659" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2659" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2659" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2659" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2659" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2659" t="n">
+        <v>5371200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2659"/>
+  <dimension ref="A1:I2660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93459,6 +93459,41 @@
         <v>5371200</v>
       </c>
     </row>
+    <row r="2660">
+      <c r="A2660" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2660" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2660" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2660" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2660" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2660" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2660" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2660" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2660" t="n">
+        <v>5687400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2660"/>
+  <dimension ref="A1:I2661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93494,6 +93494,41 @@
         <v>5687400</v>
       </c>
     </row>
+    <row r="2661">
+      <c r="A2661" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2661" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2661" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2661" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2661" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2661" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2661" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2661" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2661" t="n">
+        <v>1325100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2661"/>
+  <dimension ref="A1:I2662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93529,6 +93529,41 @@
         <v>1325100</v>
       </c>
     </row>
+    <row r="2662">
+      <c r="A2662" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2662" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2662" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2662" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2662" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2662" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2662" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2662" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2662" t="n">
+        <v>2503800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2662"/>
+  <dimension ref="A1:I2663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93564,6 +93564,41 @@
         <v>2503800</v>
       </c>
     </row>
+    <row r="2663">
+      <c r="A2663" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2663" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2663" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2663" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2663" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2663" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2663" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2663" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2663" t="n">
+        <v>2628000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2663"/>
+  <dimension ref="A1:I2664"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93599,6 +93599,41 @@
         <v>2628000</v>
       </c>
     </row>
+    <row r="2664">
+      <c r="A2664" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2664" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2664" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2664" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2664" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2664" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2664" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2664" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2664" t="n">
+        <v>629400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2664"/>
+  <dimension ref="A1:I2665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93634,6 +93634,41 @@
         <v>629400</v>
       </c>
     </row>
+    <row r="2665">
+      <c r="A2665" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2665" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2665" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2665" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2665" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2665" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2665" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2665" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2665" t="n">
+        <v>531000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2734"/>
+  <dimension ref="A1:I2735"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96084,6 +96084,41 @@
         <v>531000</v>
       </c>
     </row>
+    <row r="2735">
+      <c r="A2735" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2735" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2735" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2735" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2735" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2735" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2735" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2735" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2735" t="n">
+        <v>2014700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2735"/>
+  <dimension ref="A1:I2736"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96119,6 +96119,41 @@
         <v>2014700</v>
       </c>
     </row>
+    <row r="2736">
+      <c r="A2736" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2736" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2736" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2736" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2736" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2736" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G2736" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2736" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2736" t="n">
+        <v>12921500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2736"/>
+  <dimension ref="A1:I2737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96154,6 +96154,41 @@
         <v>12921500</v>
       </c>
     </row>
+    <row r="2737">
+      <c r="A2737" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2737" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2737" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2737" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2737" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2737" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2737" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2737" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2737" t="n">
+        <v>24972700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2737"/>
+  <dimension ref="A1:I2738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96189,6 +96189,41 @@
         <v>24972700</v>
       </c>
     </row>
+    <row r="2738">
+      <c r="A2738" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2738" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2738" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2738" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2738" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2738" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2738" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2738" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2738" t="n">
+        <v>4752200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2738"/>
+  <dimension ref="A1:I2739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96224,6 +96224,41 @@
         <v>4752200</v>
       </c>
     </row>
+    <row r="2739">
+      <c r="A2739" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2739" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2739" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2739" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2739" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2739" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2739" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2739" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2739" t="n">
+        <v>8821800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2739"/>
+  <dimension ref="A1:I2740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96259,6 +96259,41 @@
         <v>8821800</v>
       </c>
     </row>
+    <row r="2740">
+      <c r="A2740" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2740" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2740" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2740" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2740" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2740" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2740" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2740" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2740" t="n">
+        <v>2526200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2740"/>
+  <dimension ref="A1:I2741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96294,6 +96294,41 @@
         <v>2526200</v>
       </c>
     </row>
+    <row r="2741">
+      <c r="A2741" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2741" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2741" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2741" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2741" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2741" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2741" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2741" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2741" t="n">
+        <v>77799900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2741"/>
+  <dimension ref="A1:I2742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96329,6 +96329,41 @@
         <v>77799900</v>
       </c>
     </row>
+    <row r="2742">
+      <c r="A2742" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2742" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2742" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2742" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2742" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2742" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2742" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2742" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2742" t="n">
+        <v>63753600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2742"/>
+  <dimension ref="A1:I2743"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96364,6 +96364,41 @@
         <v>63753600</v>
       </c>
     </row>
+    <row r="2743">
+      <c r="A2743" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2743" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2743" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2743" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2743" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2743" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2743" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2743" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2743" t="n">
+        <v>13872300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2743"/>
+  <dimension ref="A1:I2744"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96399,6 +96399,41 @@
         <v>13872300</v>
       </c>
     </row>
+    <row r="2744">
+      <c r="A2744" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2744" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2744" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2744" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2744" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2744" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2744" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2744" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2744" t="n">
+        <v>13347800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2744"/>
+  <dimension ref="A1:I2746"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96434,6 +96434,76 @@
         <v>13347800</v>
       </c>
     </row>
+    <row r="2745">
+      <c r="A2745" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2745" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2745" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2745" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2745" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2745" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2745" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2745" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2745" t="n">
+        <v>9636100</v>
+      </c>
+    </row>
+    <row r="2746">
+      <c r="A2746" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2746" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2746" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2746" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2746" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2746" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2746" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2746" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2746" t="n">
+        <v>2670700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2746"/>
+  <dimension ref="A1:I2747"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96504,6 +96504,41 @@
         <v>2670700</v>
       </c>
     </row>
+    <row r="2747">
+      <c r="A2747" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2747" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2747" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2747" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2747" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2747" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2747" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2747" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2747" t="n">
+        <v>11835600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2747"/>
+  <dimension ref="A1:I2750"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96539,6 +96539,111 @@
         <v>11835600</v>
       </c>
     </row>
+    <row r="2748">
+      <c r="A2748" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2748" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2748" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2748" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2748" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2748" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2748" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2748" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2748" t="n">
+        <v>5329400</v>
+      </c>
+    </row>
+    <row r="2749">
+      <c r="A2749" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2749" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2749" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2749" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2749" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2749" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2749" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2749" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2749" t="n">
+        <v>6054200</v>
+      </c>
+    </row>
+    <row r="2750">
+      <c r="A2750" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2750" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2750" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2750" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2750" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2750" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2750" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2750" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2750" t="n">
+        <v>5114100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2750"/>
+  <dimension ref="A1:I2751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96644,6 +96644,41 @@
         <v>5114100</v>
       </c>
     </row>
+    <row r="2751">
+      <c r="A2751" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2751" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2751" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2751" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2751" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2751" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2751" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2751" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2751" t="n">
+        <v>6143400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2751"/>
+  <dimension ref="A1:I2752"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96679,6 +96679,41 @@
         <v>6143400</v>
       </c>
     </row>
+    <row r="2752">
+      <c r="A2752" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2752" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2752" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2752" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2752" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2752" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2752" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2752" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2752" t="n">
+        <v>1783400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0150.xlsx
+++ b/data/0150.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2752"/>
+  <dimension ref="A1:I2755"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96714,6 +96714,111 @@
         <v>1783400</v>
       </c>
     </row>
+    <row r="2753">
+      <c r="A2753" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2753" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2753" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2753" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2753" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2753" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2753" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2753" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2753" t="n">
+        <v>3061200</v>
+      </c>
+    </row>
+    <row r="2754">
+      <c r="A2754" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2754" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2754" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2754" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2754" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2754" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2754" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2754" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2754" t="n">
+        <v>60516700</v>
+      </c>
+    </row>
+    <row r="2755">
+      <c r="A2755" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2755" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2755" t="inlineStr">
+        <is>
+          <t>0150</t>
+        </is>
+      </c>
+      <c r="D2755" t="inlineStr">
+        <is>
+          <t>FINTEC</t>
+        </is>
+      </c>
+      <c r="E2755" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2755" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2755" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2755" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2755" t="n">
+        <v>160922100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
